--- a/biology/Zoologie/Brachypelma_albiceps/Brachypelma_albiceps.xlsx
+++ b/biology/Zoologie/Brachypelma_albiceps/Brachypelma_albiceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachypelma albiceps est une espèce d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachypelma albiceps est une espèce d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique[1]. Elle se rencontre au Guerrero, au Morelos et dans l'État de Mexico[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre au Guerrero, au Morelos et dans l'État de Mexico.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette mygale vie principalement dans les prairies sous des roches et dans des terriers abandonnés par des rongeurs.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son céphalothorax de couleur or la distingue des autres espèces du genre Brachypelma. Les poils urticants de son abdomen sont de couleur rouge.
 Elle peut mesurer jusqu'à 13 cm pour la femelle.
@@ -605,7 +623,9 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le venin de Brachypelma albiceps n'a pas d'effets important sur l'être humain autre que la douleur.
 </t>
@@ -636,7 +656,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme toutes les mygales du genre Brachypelma, elle préfère prendre la fuite et bombarder de ses poils urticants si elle est dérangée ; elle ne mord qu'en dernier recours.
 </t>
@@ -667,7 +689,9 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en terrariophilie.
 Elle est communément appelée en anglais Mexican Golden Red Bump.
@@ -699,7 +723,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Pocock, 1903 : On some genera and species of South American Aviculariidae. Annals and Magazine of Natural History, sér. 7, vol. 11, p. 81-115 (texte intégral).</t>
         </is>
